--- a/contents/시즐리니언/데이터 테이블.xlsx
+++ b/contents/시즐리니언/데이터 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DA53E7-88BD-40F5-8C20-35B38B57D658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2769F857-303C-40E8-8898-6AAE202D05FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 구조 도식도" sheetId="24" r:id="rId1"/>
@@ -3154,16 +3154,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3172,8 +3166,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3502,7 +3502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E85554-DECC-485B-9378-876D0FE0F615}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
@@ -14315,8 +14315,8 @@
   </sheetPr>
   <dimension ref="X1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -16819,10 +16819,10 @@
       <c r="C3" s="22" t="s">
         <v>567</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="45" t="s">
         <v>568</v>
       </c>
-      <c r="E3" s="48"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="3">
@@ -16834,10 +16834,10 @@
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="48" t="s">
         <v>569</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="1:5" ht="33">
       <c r="A5" s="3">
@@ -16954,7 +16954,7 @@
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="47" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="44"/>
@@ -16969,10 +16969,10 @@
       <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="48" t="s">
         <v>569</v>
       </c>
-      <c r="E14" s="46"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" spans="1:5" ht="33">
       <c r="A15" s="3">
@@ -17105,7 +17105,7 @@
       <c r="C24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="47" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="44"/>
@@ -17120,10 +17120,10 @@
       <c r="C25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="48" t="s">
         <v>569</v>
       </c>
-      <c r="E25" s="46"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" spans="1:5" ht="33">
       <c r="A26" s="3">
@@ -17313,7 +17313,7 @@
       <c r="C39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="47" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="44"/>
@@ -17338,10 +17338,10 @@
       <c r="C40" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="48" t="s">
         <v>569</v>
       </c>
-      <c r="E40" s="46"/>
+      <c r="E40" s="49"/>
     </row>
     <row r="41" spans="1:17" ht="16.5">
       <c r="A41" s="3">
@@ -17491,7 +17491,7 @@
       <c r="C51" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="47" t="s">
         <v>7</v>
       </c>
       <c r="E51" s="44"/>
@@ -17506,10 +17506,10 @@
       <c r="C52" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="45" t="s">
+      <c r="D52" s="48" t="s">
         <v>569</v>
       </c>
-      <c r="E52" s="46"/>
+      <c r="E52" s="49"/>
     </row>
     <row r="53" spans="1:5" ht="16.5">
       <c r="A53" s="3">
@@ -17574,7 +17574,7 @@
       <c r="C59" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="43" t="s">
+      <c r="D59" s="47" t="s">
         <v>7</v>
       </c>
       <c r="E59" s="44"/>
@@ -17589,10 +17589,10 @@
       <c r="C60" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="45" t="s">
+      <c r="D60" s="48" t="s">
         <v>569</v>
       </c>
-      <c r="E60" s="46"/>
+      <c r="E60" s="49"/>
     </row>
     <row r="61" spans="1:5" ht="33">
       <c r="A61" s="3">
@@ -17652,7 +17652,7 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="43" t="s">
+      <c r="D67" s="47" t="s">
         <v>7</v>
       </c>
       <c r="E67" s="44"/>
@@ -17667,10 +17667,10 @@
       <c r="C68" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="45" t="s">
+      <c r="D68" s="48" t="s">
         <v>569</v>
       </c>
-      <c r="E68" s="46"/>
+      <c r="E68" s="49"/>
     </row>
     <row r="69" spans="1:5" ht="33">
       <c r="A69" s="3">
@@ -17843,7 +17843,7 @@
       <c r="C80" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="43" t="s">
+      <c r="D80" s="47" t="s">
         <v>7</v>
       </c>
       <c r="E80" s="44"/>
@@ -17930,7 +17930,7 @@
       <c r="C88" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="49" t="s">
+      <c r="D88" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E88" s="44"/>
@@ -18146,7 +18146,7 @@
       <c r="C102" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="49" t="s">
+      <c r="D102" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E102" s="44"/>
@@ -18351,7 +18351,7 @@
       <c r="C116" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D116" s="49" t="s">
+      <c r="D116" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E116" s="44"/>
@@ -18454,7 +18454,7 @@
       <c r="C124" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D124" s="49" t="s">
+      <c r="D124" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E124" s="44"/>
@@ -18591,7 +18591,7 @@
       <c r="C134" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D134" s="49" t="s">
+      <c r="D134" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E134" s="44"/>
@@ -18694,7 +18694,7 @@
       <c r="C142" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D142" s="49" t="s">
+      <c r="D142" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E142" s="44"/>
@@ -19631,17 +19631,6 @@
     <row r="1008" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D52:E52"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D80:E80"/>
@@ -19652,6 +19641,17 @@
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D124:E124"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
